--- a/Test_Data/cases.xlsx
+++ b/Test_Data/cases.xlsx
@@ -1653,10 +1653,10 @@
         <v>29</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="H2" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="25.95" r="3" spans="1:8">
@@ -1679,10 +1679,10 @@
         <v>32</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="H3" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="25.95" r="4" spans="1:8">
@@ -1705,10 +1705,10 @@
         <v>18</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="H4" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="25.95" r="5" spans="1:8">
@@ -1731,10 +1731,10 @@
         <v>22</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="H5" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/cases.xlsx
+++ b/Test_Data/cases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7860" windowWidth="20490"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7860" windowWidth="19935"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>case_id</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
   <si>
     <t>不输入密码</t>
@@ -406,53 +409,25 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,28 +442,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -511,25 +464,29 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <sz val="11"/>
-      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,6 +504,52 @@
       <sz val="15"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -557,19 +560,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,55 +692,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,103 +740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,6 +782,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -790,6 +811,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,33 +856,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -862,17 +871,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,10 +885,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="9" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -894,133 +897,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="20" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="15" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="13" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="25" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="6" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="6" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="5" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="27" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="27" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="23" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="25" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="25" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="30" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1590,8 +1593,8 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0" outlineLevelRow="4"/>
@@ -1653,10 +1656,10 @@
         <v>29</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="16" t="b">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="25.95" r="3" spans="1:8">
@@ -1679,10 +1682,10 @@
         <v>32</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="16" t="b">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="25.95" r="4" spans="1:8">
@@ -1690,13 +1693,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>11</v>
@@ -1705,10 +1708,10 @@
         <v>18</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="16" t="b">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="25.95" r="5" spans="1:8">
@@ -1716,13 +1719,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>17</v>
@@ -1731,10 +1734,10 @@
         <v>22</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="16" t="b">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1800,13 +1803,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1815,7 +1818,7 @@
         <v>10001</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>19</v>
@@ -1826,13 +1829,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
@@ -1852,13 +1855,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>17</v>
@@ -1867,7 +1870,7 @@
         <v>20116</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>19</v>
@@ -1919,13 +1922,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1939,7 +1942,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -1948,10 +1951,10 @@
         <v>10001</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="3" spans="1:8">
@@ -1959,13 +1962,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -1974,10 +1977,10 @@
         <v>10001</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1985,13 +1988,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
@@ -2000,10 +2003,10 @@
         <v>20115</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2011,13 +2014,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -2026,10 +2029,10 @@
         <v>20117</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2037,13 +2040,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>17</v>
@@ -2052,10 +2055,10 @@
         <v>10001</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2072,8 +2075,8 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0" outlineLevelRow="7"/>
@@ -2106,13 +2109,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2120,13 +2123,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>17</v>
@@ -2135,7 +2138,7 @@
         <v>10001</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -2146,13 +2149,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>17</v>
@@ -2172,13 +2175,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
@@ -2187,7 +2190,7 @@
         <v>20115</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -2198,13 +2201,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -2213,7 +2216,7 @@
         <v>20104</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -2224,13 +2227,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>17</v>
@@ -2250,13 +2253,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>17</v>
@@ -2265,7 +2268,7 @@
         <v>20117</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -2276,13 +2279,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -2291,7 +2294,7 @@
         <v>20119</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -2338,13 +2341,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2352,13 +2355,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -2374,13 +2377,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -2396,13 +2399,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>17</v>
@@ -2418,13 +2421,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -2440,13 +2443,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
@@ -2462,13 +2465,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
@@ -2484,13 +2487,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>17</v>
@@ -2528,50 +2531,50 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/cases.xlsx
+++ b/Test_Data/cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>case_id</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>不输入密码</t>
@@ -1693,13 +1690,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>11</v>
@@ -1719,13 +1716,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>17</v>
@@ -1803,13 +1800,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1818,7 +1815,7 @@
         <v>10001</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>19</v>
@@ -1829,13 +1826,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
@@ -1855,13 +1852,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>17</v>
@@ -1870,7 +1867,7 @@
         <v>20116</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>19</v>
@@ -1922,13 +1919,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1942,7 +1939,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -1951,10 +1948,10 @@
         <v>10001</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="3" spans="1:8">
@@ -1962,13 +1959,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -1977,10 +1974,10 @@
         <v>10001</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1988,13 +1985,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
@@ -2003,10 +2000,10 @@
         <v>20115</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2014,13 +2011,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -2029,10 +2026,10 @@
         <v>20117</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2040,13 +2037,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>17</v>
@@ -2055,10 +2052,10 @@
         <v>10001</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2109,13 +2106,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2123,13 +2120,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>17</v>
@@ -2138,7 +2135,7 @@
         <v>10001</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -2149,13 +2146,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>17</v>
@@ -2175,13 +2172,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
@@ -2190,7 +2187,7 @@
         <v>20115</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -2201,13 +2198,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -2216,7 +2213,7 @@
         <v>20104</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -2227,13 +2224,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>17</v>
@@ -2253,13 +2250,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>17</v>
@@ -2268,7 +2265,7 @@
         <v>20117</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -2279,13 +2276,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -2294,7 +2291,7 @@
         <v>20119</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -2341,13 +2338,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2355,13 +2352,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -2377,13 +2374,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -2399,13 +2396,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>17</v>
@@ -2421,13 +2418,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -2443,13 +2440,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
@@ -2465,13 +2462,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
@@ -2487,13 +2484,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>17</v>
@@ -2531,50 +2528,50 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>103</v>
-      </c>
-      <c r="C3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
         <v>105</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>106</v>
-      </c>
-      <c r="C4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/cases.xlsx
+++ b/Test_Data/cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>case_id</t>
   </si>
@@ -142,7 +142,10 @@
     <t>{"mobilephone":"15942123962","amount":"1"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":2281,"regname":"abc123","pwd":"A141C47927929BC2D1FB6D336A256DF4","mobilephone":"15942123962","leaveamount":"51.00","type":"1","regtime":"2019-05-17 17:19:05.0"},"msg":"充值成功"}</t>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>充值手机号码不存在</t>
@@ -151,13 +154,19 @@
     <t>{"mobilephone":"12345678985","amount":""}</t>
   </si>
   <si>
+    <t>20109</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
     <t>充值金额小数点大于两位</t>
   </si>
   <si>
     <t>{"mobilephone":"15810447656","amount":"33.2222"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
+    <t>20116</t>
   </si>
   <si>
     <t>expect</t>
@@ -170,9 +179,6 @@
   </si>
   <si>
     <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '登录成功'}</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>{"mobilephone":"${normal_user}","amount":"1000"}</t>
@@ -1818,7 +1824,7 @@
         <v>40</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="21" r="3" spans="1:9">
@@ -1826,13 +1832,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
@@ -1841,10 +1847,10 @@
         <v>20109</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="16.2" r="4" spans="1:9">
@@ -1852,13 +1858,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>17</v>
@@ -1867,10 +1873,10 @@
         <v>20116</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1919,13 +1925,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1939,7 +1945,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -1948,10 +1954,10 @@
         <v>10001</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="3" spans="1:8">
@@ -1965,7 +1971,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -1974,10 +1980,10 @@
         <v>10001</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1985,13 +1991,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
@@ -2000,10 +2006,10 @@
         <v>20115</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2011,13 +2017,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -2026,10 +2032,10 @@
         <v>20117</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2037,13 +2043,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>17</v>
@@ -2052,10 +2058,10 @@
         <v>10001</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2106,13 +2112,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2120,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>39</v>
@@ -2135,7 +2141,7 @@
         <v>10001</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -2146,13 +2152,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>17</v>
@@ -2172,13 +2178,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
@@ -2187,7 +2193,7 @@
         <v>20115</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -2198,13 +2204,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -2213,7 +2219,7 @@
         <v>20104</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -2224,13 +2230,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>17</v>
@@ -2250,13 +2256,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>17</v>
@@ -2265,7 +2271,7 @@
         <v>20117</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -2276,13 +2282,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -2291,7 +2297,7 @@
         <v>20119</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -2338,13 +2344,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2352,13 +2358,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -2374,13 +2380,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -2396,13 +2402,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>17</v>
@@ -2418,13 +2424,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -2440,13 +2446,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
@@ -2462,13 +2468,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
@@ -2484,13 +2490,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>17</v>
@@ -2528,50 +2534,50 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/cases.xlsx
+++ b/Test_Data/cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>case_id</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>20109</t>
-  </si>
-  <si>
-    <t>FALSE</t>
   </si>
   <si>
     <t>充值金额小数点大于两位</t>
@@ -1858,13 +1855,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>17</v>
@@ -1873,7 +1870,7 @@
         <v>20116</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>41</v>
@@ -1925,13 +1922,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1945,7 +1942,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -1954,7 +1951,7 @@
         <v>10001</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -1971,7 +1968,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -1980,7 +1977,7 @@
         <v>10001</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>41</v>
@@ -1991,13 +1988,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
@@ -2006,7 +2003,7 @@
         <v>20115</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>41</v>
@@ -2017,13 +2014,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -2032,7 +2029,7 @@
         <v>20117</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>41</v>
@@ -2043,13 +2040,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>17</v>
@@ -2058,7 +2055,7 @@
         <v>10001</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>41</v>
@@ -2112,13 +2109,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2126,10 +2123,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>39</v>
@@ -2141,7 +2138,7 @@
         <v>10001</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -2152,13 +2149,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>17</v>
@@ -2178,13 +2175,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
@@ -2193,7 +2190,7 @@
         <v>20115</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -2204,13 +2201,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -2219,7 +2216,7 @@
         <v>20104</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -2230,13 +2227,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>17</v>
@@ -2256,13 +2253,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>17</v>
@@ -2271,7 +2268,7 @@
         <v>20117</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -2282,13 +2279,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -2297,7 +2294,7 @@
         <v>20119</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -2344,13 +2341,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2358,13 +2355,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -2380,13 +2377,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -2402,13 +2399,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>17</v>
@@ -2424,13 +2421,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -2446,13 +2443,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
@@ -2468,13 +2465,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
@@ -2490,13 +2487,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>17</v>
@@ -2534,50 +2531,50 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>104</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
